--- a/src/analysis_examples/circadb/results_jtk/cosinor_10358533_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10358533_hmcn1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2415976117816318, 0.35515441082055826]</t>
+          <t>[0.24181021230498462, 0.35494181029720545]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.003346543157704e-10</v>
+        <v>3.741886800412431e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>4.003346543157704e-10</v>
+        <v>3.741886800412431e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.383684452031541</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5012149909286644, 0.5695520658363656]</t>
+          <t>[0.5012497940236855, 0.5695172627413445]</t>
         </is>
       </c>
       <c r="U2" t="n">
